--- a/demo.xlsx
+++ b/demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koushik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koushik\Gitdemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC6EF05-9EAD-4463-9D8D-3717B8EFC230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8512CB60-045E-4C83-9537-E6342D53D27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2844282-8567-4F09-AE31-A99FAA30D393}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Testcases</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>mnm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extra line </t>
+  </si>
+  <si>
+    <t>dfd</t>
+  </si>
+  <si>
+    <t>adfa</t>
+  </si>
+  <si>
+    <t>dsgs</t>
   </si>
 </sst>
 </file>
@@ -419,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45799E0F-26F0-4DF2-A0E1-260F110AD8F3}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,6 +496,20 @@
       </c>
       <c r="D4" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
